--- a/ProjectPlan.xlsx
+++ b/ProjectPlan.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="25711"/>
-  <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JDang/Dropbox/Websmith/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="640" windowWidth="23480" windowHeight="15260"/>
+    <workbookView xWindow="585" yWindow="645" windowWidth="23475" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Project Plan for Reminder App" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -68,21 +63,12 @@
     <t>Beta Test</t>
   </si>
   <si>
-    <t>Target Platform: Windows</t>
-  </si>
-  <si>
-    <t>Reminder Web App @ Websmith Group</t>
-  </si>
-  <si>
     <t>Dashboard Design (Homepage)</t>
   </si>
   <si>
     <t>Adding Users</t>
   </si>
   <si>
-    <t>Visual Studio MVC</t>
-  </si>
-  <si>
     <t>Access Control (Login/Admin Access)</t>
   </si>
   <si>
@@ -174,6 +160,15 @@
   </si>
   <si>
     <t>Map API/Map Integration</t>
+  </si>
+  <si>
+    <t>Target Platform: Windows, Mac OS X</t>
+  </si>
+  <si>
+    <t>Message Slips App for Websmith Group</t>
+  </si>
+  <si>
+    <t>Jason Dang</t>
   </si>
 </sst>
 </file>
@@ -588,37 +583,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="139" zoomScaleNormal="139" zoomScalePageLayoutView="139" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="139" zoomScalePageLayoutView="139" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="4.1640625" customWidth="1"/>
-    <col min="3" max="4" width="32.1640625" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" customWidth="1"/>
+    <col min="3" max="4" width="32.140625" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
     <col min="7" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="19.33203125" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <f>SUM(A10:A36)/34</f>
         <v>0</v>
@@ -632,7 +627,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
@@ -661,22 +656,22 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="6">
         <v>1.1000000000000001</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G6" s="12">
         <v>42142</v>
@@ -685,52 +680,52 @@
         <v>42143</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="6">
         <v>1.2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G7" s="12">
         <v>42143</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="6">
         <v>1.3</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G8" s="12">
         <v>42153</v>
@@ -739,10 +734,10 @@
         <v>42190</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="6"/>
       <c r="C9" s="10"/>
@@ -753,22 +748,22 @@
       <c r="H9" s="4"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="6">
         <v>2.1</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G10" s="7">
         <v>42137</v>
@@ -777,25 +772,25 @@
         <v>42139</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="6">
         <v>2.2000000000000002</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G11" s="7">
         <v>42139</v>
@@ -804,25 +799,25 @@
         <v>42150</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="6">
         <v>2.2999999999999998</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7">
         <v>42151</v>
@@ -831,25 +826,25 @@
         <v>42152</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="6">
         <v>2.4</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G13" s="7">
         <v>42153</v>
@@ -858,25 +853,25 @@
         <v>42190</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="6">
         <v>2.5</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G14" s="7">
         <v>42167</v>
@@ -885,25 +880,25 @@
         <v>42173</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="6">
         <v>2.6</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G15" s="7">
         <v>42174</v>
@@ -912,25 +907,25 @@
         <v>42180</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="6">
         <v>2.7</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G16" s="7">
         <v>42181</v>
@@ -939,25 +934,25 @@
         <v>42190</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="6">
         <v>2.8</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G17" s="7">
         <v>42188</v>
@@ -966,10 +961,10 @@
         <v>42191</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="E18" s="6"/>
       <c r="F18" s="8"/>
@@ -977,7 +972,7 @@
       <c r="H18" s="7"/>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="6">
         <v>3.1</v>
@@ -989,10 +984,10 @@
         <v>10</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G19" s="7">
         <v>42149</v>
@@ -1001,10 +996,10 @@
         <v>42150</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="6">
         <v>3.3</v>
@@ -1013,13 +1008,13 @@
         <v>11</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G20" s="7">
         <v>42186</v>
@@ -1028,10 +1023,10 @@
         <v>42188</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="6">
         <v>3.4</v>
@@ -1040,13 +1035,13 @@
         <v>11</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G21" s="12">
         <v>42191</v>
@@ -1055,10 +1050,10 @@
         <v>42191</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B23" s="11">
         <v>4.0999999999999996</v>
       </c>
@@ -1066,10 +1061,10 @@
         <v>12</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G23" s="13">
         <v>42192</v>
@@ -1078,10 +1073,10 @@
         <v>42192</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B24" s="11">
         <v>4.2</v>
       </c>
@@ -1089,10 +1084,10 @@
         <v>13</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G24" s="13">
         <v>42194</v>
@@ -1101,7 +1096,7 @@
         <v>42194</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/ProjectPlan.xlsx
+++ b/ProjectPlan.xlsx
@@ -337,7 +337,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -372,7 +372,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -583,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="139" zoomScalePageLayoutView="139" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="139" zoomScaleNormal="139" zoomScalePageLayoutView="139" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -671,7 +671,7 @@
         <v>23</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G6" s="12">
         <v>42142</v>
@@ -698,7 +698,7 @@
         <v>23</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G7" s="12">
         <v>42143</v>
@@ -725,7 +725,7 @@
         <v>23</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G8" s="12">
         <v>42153</v>

--- a/ProjectPlan.xlsx
+++ b/ProjectPlan.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JDang\Documents\GitHub\ReminderWebsmithGroup\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="585" yWindow="645" windowWidth="23475" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Project Plan for Reminder App" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -84,9 +89,6 @@
     <t>Delete/Update Reminder</t>
   </si>
   <si>
-    <t>Reminder Funtionality</t>
-  </si>
-  <si>
     <t>Beta Test for End-User</t>
   </si>
   <si>
@@ -96,9 +98,6 @@
     <t>Mark</t>
   </si>
   <si>
-    <t>Create Reminder Funtionality</t>
-  </si>
-  <si>
     <t>Web App Demo (to Rachel)</t>
   </si>
   <si>
@@ -169,6 +168,12 @@
   </si>
   <si>
     <t>Jason Dang</t>
+  </si>
+  <si>
+    <t>Create Message Funtionality</t>
+  </si>
+  <si>
+    <t>Message Funtionality</t>
   </si>
 </sst>
 </file>
@@ -290,6 +295,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -337,7 +345,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -372,7 +380,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -583,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="139" zoomScaleNormal="139" zoomScalePageLayoutView="139" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="139" zoomScalePageLayoutView="139" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -600,17 +608,17 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -668,10 +676,10 @@
         <v>9</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G6" s="12">
         <v>42142</v>
@@ -680,7 +688,7 @@
         <v>42143</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -692,22 +700,22 @@
         <v>19</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G7" s="12">
         <v>42143</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -719,13 +727,13 @@
         <v>19</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G8" s="12">
         <v>42153</v>
@@ -734,7 +742,7 @@
         <v>42190</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -757,13 +765,13 @@
         <v>18</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>24</v>
       </c>
       <c r="G10" s="7">
         <v>42137</v>
@@ -772,7 +780,7 @@
         <v>42139</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -787,10 +795,10 @@
         <v>16</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G11" s="7">
         <v>42139</v>
@@ -799,7 +807,7 @@
         <v>42150</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -814,10 +822,10 @@
         <v>14</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7">
         <v>42151</v>
@@ -826,7 +834,7 @@
         <v>42152</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -838,13 +846,13 @@
         <v>18</v>
       </c>
       <c r="D13" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="14" t="s">
         <v>25</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>27</v>
       </c>
       <c r="G13" s="7">
         <v>42153</v>
@@ -853,7 +861,7 @@
         <v>42190</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -868,10 +876,10 @@
         <v>17</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G14" s="7">
         <v>42167</v>
@@ -880,7 +888,7 @@
         <v>42173</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -892,13 +900,13 @@
         <v>18</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G15" s="7">
         <v>42174</v>
@@ -907,7 +915,7 @@
         <v>42180</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -922,10 +930,10 @@
         <v>20</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G16" s="7">
         <v>42181</v>
@@ -934,7 +942,7 @@
         <v>42190</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -949,10 +957,10 @@
         <v>15</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G17" s="7">
         <v>42188</v>
@@ -961,7 +969,7 @@
         <v>42191</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -984,10 +992,10 @@
         <v>10</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G19" s="7">
         <v>42149</v>
@@ -996,7 +1004,7 @@
         <v>42150</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -1008,13 +1016,13 @@
         <v>11</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G20" s="7">
         <v>42186</v>
@@ -1023,7 +1031,7 @@
         <v>42188</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
@@ -1035,13 +1043,13 @@
         <v>11</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G21" s="12">
         <v>42191</v>
@@ -1050,7 +1058,7 @@
         <v>42191</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -1061,10 +1069,10 @@
         <v>12</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G23" s="13">
         <v>42192</v>
@@ -1073,7 +1081,7 @@
         <v>42192</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -1084,10 +1092,10 @@
         <v>13</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G24" s="13">
         <v>42194</v>
@@ -1096,7 +1104,7 @@
         <v>42194</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/ProjectPlan.xlsx
+++ b/ProjectPlan.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JDang\Documents\GitHub\ReminderWebsmithGroup\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="585" yWindow="645" windowWidth="23475" windowHeight="13740"/>
+    <workbookView xWindow="580" yWindow="640" windowWidth="23480" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Project Plan for Reminder App" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -241,7 +236,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -276,6 +271,9 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -345,7 +343,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -380,7 +378,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -592,39 +590,39 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="139" zoomScalePageLayoutView="139" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" customWidth="1"/>
-    <col min="3" max="4" width="32.140625" customWidth="1"/>
+    <col min="2" max="2" width="4.1640625" customWidth="1"/>
+    <col min="3" max="4" width="32.1640625" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1"/>
     <col min="7" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <f>SUM(A10:A36)/34</f>
-        <v>0</v>
+        <v>0.3235294117647059</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -635,7 +633,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
@@ -664,8 +662,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
+    <row r="6" spans="1:9">
+      <c r="A6" s="15">
+        <v>1</v>
+      </c>
       <c r="B6" s="6">
         <v>1.1000000000000001</v>
       </c>
@@ -691,8 +691,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
+    <row r="7" spans="1:9">
+      <c r="A7" s="15">
+        <v>1</v>
+      </c>
       <c r="B7" s="6">
         <v>1.2</v>
       </c>
@@ -718,8 +720,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
+    <row r="8" spans="1:9">
+      <c r="A8" s="15">
+        <v>1</v>
+      </c>
       <c r="B8" s="6">
         <v>1.3</v>
       </c>
@@ -745,7 +749,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="4"/>
       <c r="B9" s="6"/>
       <c r="C9" s="10"/>
@@ -756,8 +760,10 @@
       <c r="H9" s="4"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
+    <row r="10" spans="1:9">
+      <c r="A10" s="5">
+        <v>1</v>
+      </c>
       <c r="B10" s="6">
         <v>2.1</v>
       </c>
@@ -783,8 +789,10 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
+    <row r="11" spans="1:9">
+      <c r="A11" s="5">
+        <v>1</v>
+      </c>
       <c r="B11" s="6">
         <v>2.2000000000000002</v>
       </c>
@@ -810,8 +818,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
+    <row r="12" spans="1:9">
+      <c r="A12" s="5">
+        <v>1</v>
+      </c>
       <c r="B12" s="6">
         <v>2.2999999999999998</v>
       </c>
@@ -837,8 +847,10 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
+    <row r="13" spans="1:9">
+      <c r="A13" s="5">
+        <v>1</v>
+      </c>
       <c r="B13" s="6">
         <v>2.4</v>
       </c>
@@ -864,8 +876,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
+    <row r="14" spans="1:9">
+      <c r="A14" s="5">
+        <v>1</v>
+      </c>
       <c r="B14" s="6">
         <v>2.5</v>
       </c>
@@ -891,8 +905,10 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
+    <row r="15" spans="1:9">
+      <c r="A15" s="5">
+        <v>1</v>
+      </c>
       <c r="B15" s="6">
         <v>2.6</v>
       </c>
@@ -918,8 +934,10 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
+    <row r="16" spans="1:9">
+      <c r="A16" s="5">
+        <v>1</v>
+      </c>
       <c r="B16" s="6">
         <v>2.7</v>
       </c>
@@ -945,8 +963,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
+    <row r="17" spans="1:9">
+      <c r="A17" s="5">
+        <v>1</v>
+      </c>
       <c r="B17" s="6">
         <v>2.8</v>
       </c>
@@ -972,7 +992,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" s="5"/>
       <c r="E18" s="6"/>
       <c r="F18" s="8"/>
@@ -980,8 +1000,10 @@
       <c r="H18" s="7"/>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
+    <row r="19" spans="1:9">
+      <c r="A19" s="5">
+        <v>1</v>
+      </c>
       <c r="B19" s="6">
         <v>3.1</v>
       </c>
@@ -1007,8 +1029,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
+    <row r="20" spans="1:9">
+      <c r="A20" s="5">
+        <v>1</v>
+      </c>
       <c r="B20" s="6">
         <v>3.3</v>
       </c>
@@ -1034,8 +1058,10 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
+    <row r="21" spans="1:9">
+      <c r="A21" s="5">
+        <v>1</v>
+      </c>
       <c r="B21" s="6">
         <v>3.4</v>
       </c>
@@ -1061,7 +1087,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="B23" s="11">
         <v>4.0999999999999996</v>
       </c>
@@ -1084,7 +1110,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="B24" s="11">
         <v>4.2</v>
       </c>
@@ -1109,6 +1135,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>